--- a/DataVisualization/data/dataset por archivos/20190513_MI.xlsx
+++ b/DataVisualization/data/dataset por archivos/20190513_MI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ecem/Documents/Data Visulisation for Analysis of Social Data/New Data/dataset por archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7404C9E-ED78-434A-A649-F50D47AC4215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993E26A-51FB-E947-BF12-E36BADE105D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="23260" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="23260" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20190513_MI" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20190513_MI'!$F$1:$F$192</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="331">
   <si>
     <t>Yo me pongo la medalla y pido canonización y que otros lleven a término el trabajo.</t>
   </si>
@@ -1011,22 +1012,25 @@
     <t>Constructiveness</t>
   </si>
   <si>
-    <t>Argument</t>
-  </si>
-  <si>
-    <t>Target Person</t>
-  </si>
-  <si>
-    <t>Target Group</t>
-  </si>
-  <si>
-    <t>Improper Language</t>
-  </si>
-  <si>
-    <t>Toxicity Level</t>
-  </si>
-  <si>
-    <t>Aggresiveness</t>
+    <t>Argumentation</t>
+  </si>
+  <si>
+    <t>Target person</t>
+  </si>
+  <si>
+    <t>Target group</t>
+  </si>
+  <si>
+    <t>Improper language</t>
+  </si>
+  <si>
+    <t>Agressiveness</t>
+  </si>
+  <si>
+    <t>Toxicity level</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1077,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,6 +1087,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1113,8 +1135,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:X198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,14 +1489,14 @@
     <col min="23" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1481,10 +1508,10 @@
       <c r="F1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1518,7 +1545,7 @@
         <v>327</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>275</v>
@@ -1527,16 +1554,23 @@
         <v>274</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+        <v>329</v>
+      </c>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>273</v>
       </c>
+      <c r="C2" s="10">
+        <v>44004</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
@@ -1593,13 +1627,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C3" s="10">
+        <v>44005</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
@@ -1656,13 +1696,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C4" s="10">
+        <v>44006</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
@@ -1719,13 +1765,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>270</v>
       </c>
+      <c r="C5" s="10">
+        <v>44007</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
@@ -1782,13 +1834,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="C6" s="10">
+        <v>44008</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
@@ -1845,13 +1903,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>267</v>
       </c>
+      <c r="C7" s="10">
+        <v>44009</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E7" s="4">
         <v>6</v>
       </c>
@@ -1908,13 +1972,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>265</v>
       </c>
+      <c r="C8" s="10">
+        <v>44010</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E8" s="4">
         <v>7</v>
       </c>
@@ -1971,13 +2041,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>263</v>
       </c>
+      <c r="C9" s="10">
+        <v>44011</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
@@ -2034,13 +2110,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>261</v>
       </c>
+      <c r="C10" s="10">
+        <v>44012</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E10" s="4">
         <v>9</v>
       </c>
@@ -2097,13 +2179,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="C11" s="10">
+        <v>44013</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
@@ -2160,13 +2248,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="C12" s="10">
+        <v>44014</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.52638888888888891</v>
+      </c>
       <c r="E12" s="4">
         <v>11</v>
       </c>
@@ -2223,13 +2317,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="C13" s="10">
+        <v>44015</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6.805555555555555E-2</v>
+      </c>
       <c r="E13" s="4">
         <v>12</v>
       </c>
@@ -2286,12 +2386,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44016</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.10972222222222222</v>
       </c>
       <c r="E14" s="4">
         <v>12</v>
@@ -2349,13 +2455,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="C15" s="10">
+        <v>44017</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.15138888888888888</v>
+      </c>
       <c r="E15" s="4">
         <v>14</v>
       </c>
@@ -2412,12 +2524,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>250</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44018</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.19305555555555554</v>
       </c>
       <c r="E16" s="4">
         <v>14</v>
@@ -2476,12 +2594,18 @@
       </c>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>248</v>
       </c>
+      <c r="C17" s="10">
+        <v>44019</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.23472222222222219</v>
+      </c>
       <c r="E17" s="4">
         <v>16</v>
       </c>
@@ -2539,12 +2663,18 @@
       </c>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="C18" s="10">
+        <v>44020</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.27638888888888885</v>
+      </c>
       <c r="E18" s="4">
         <v>17</v>
       </c>
@@ -2602,12 +2732,18 @@
       </c>
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>246</v>
       </c>
+      <c r="C19" s="10">
+        <v>44021</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.31805555555555554</v>
+      </c>
       <c r="E19" s="4">
         <v>18</v>
       </c>
@@ -2665,12 +2801,18 @@
       </c>
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>245</v>
       </c>
+      <c r="C20" s="10">
+        <v>44022</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.35972222222222222</v>
+      </c>
       <c r="E20" s="4">
         <v>19</v>
       </c>
@@ -2728,12 +2870,18 @@
       </c>
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C21" s="10">
+        <v>44023</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
@@ -2791,12 +2939,18 @@
       </c>
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>242</v>
       </c>
+      <c r="C22" s="10">
+        <v>44024</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.44305555555555554</v>
+      </c>
       <c r="E22" s="4">
         <v>21</v>
       </c>
@@ -2854,12 +3008,18 @@
       </c>
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C23" s="10">
+        <v>44025</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="E23" s="4">
         <v>22</v>
       </c>
@@ -2917,12 +3077,18 @@
       </c>
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>239</v>
       </c>
+      <c r="C24" s="10">
+        <v>44026</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.52638888888888891</v>
+      </c>
       <c r="E24" s="4">
         <v>23</v>
       </c>
@@ -2980,12 +3146,18 @@
       </c>
     </row>
     <row r="25" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C25" s="10">
+        <v>44027</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.56805555555555598</v>
+      </c>
       <c r="E25" s="4">
         <v>24</v>
       </c>
@@ -3043,11 +3215,17 @@
       </c>
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>237</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44028</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.60972222222222205</v>
       </c>
       <c r="E26" s="4">
         <v>24</v>
@@ -3106,12 +3284,18 @@
       </c>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="C27" s="10">
+        <v>44029</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E27" s="4">
         <v>26</v>
       </c>
@@ -3169,11 +3353,17 @@
       </c>
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>233</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44030</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.69305555555555498</v>
       </c>
       <c r="E28" s="4">
         <v>26</v>
@@ -3232,11 +3422,17 @@
       </c>
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>232</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44031</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.73472222222222305</v>
       </c>
       <c r="E29" s="4">
         <v>26</v>
@@ -3295,12 +3491,18 @@
       </c>
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>230</v>
       </c>
+      <c r="C30" s="10">
+        <v>44032</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.77638888888889002</v>
+      </c>
       <c r="E30" s="4">
         <v>29</v>
       </c>
@@ -3358,11 +3560,17 @@
       </c>
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44033</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.81805555555555698</v>
       </c>
       <c r="E31" s="4">
         <v>29</v>
@@ -3421,12 +3629,18 @@
       </c>
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>227</v>
       </c>
+      <c r="C32" s="10">
+        <v>44034</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.85972222222222405</v>
+      </c>
       <c r="E32" s="4">
         <v>31</v>
       </c>
@@ -3484,12 +3698,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>225</v>
       </c>
+      <c r="C33" s="10">
+        <v>44035</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E33" s="4">
         <v>32</v>
       </c>
@@ -3547,12 +3767,18 @@
       </c>
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="C34" s="10">
+        <v>44036</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E34" s="4">
         <v>33</v>
       </c>
@@ -3610,11 +3836,17 @@
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>173</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44037</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.69305555555555598</v>
       </c>
       <c r="E35" s="4">
         <v>33</v>
@@ -3673,12 +3905,18 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="C36" s="10">
+        <v>44038</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E36" s="4">
         <v>35</v>
       </c>
@@ -3736,12 +3974,18 @@
       </c>
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>220</v>
       </c>
+      <c r="C37" s="10">
+        <v>44039</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E37" s="4">
         <v>35</v>
       </c>
@@ -3798,12 +4042,18 @@
       </c>
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>218</v>
       </c>
+      <c r="C38" s="10">
+        <v>44040</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E38" s="4">
         <v>36</v>
       </c>
@@ -3860,12 +4110,18 @@
       </c>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="C39" s="10">
+        <v>44041</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E39" s="4">
         <v>38</v>
       </c>
@@ -3922,12 +4178,18 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>215</v>
       </c>
+      <c r="C40" s="10">
+        <v>44042</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E40" s="4">
         <v>39</v>
       </c>
@@ -3984,12 +4246,18 @@
       </c>
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>213</v>
       </c>
+      <c r="C41" s="10">
+        <v>44043</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E41" s="4">
         <v>40</v>
       </c>
@@ -4046,12 +4314,18 @@
       </c>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C42" s="10">
+        <v>44044</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E42" s="4">
         <v>41</v>
       </c>
@@ -4108,12 +4382,18 @@
       </c>
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C43" s="10">
+        <v>44045</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E43" s="4">
         <v>41</v>
       </c>
@@ -4170,12 +4450,18 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="C44" s="10">
+        <v>44046</v>
+      </c>
+      <c r="D44" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E44" s="4">
         <v>43</v>
       </c>
@@ -4232,12 +4518,18 @@
       </c>
     </row>
     <row r="45" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="C45" s="10">
+        <v>44047</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E45" s="4">
         <v>44</v>
       </c>
@@ -4294,12 +4586,18 @@
       </c>
     </row>
     <row r="46" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="C46" s="10">
+        <v>44048</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E46" s="4">
         <v>45</v>
       </c>
@@ -4356,12 +4654,18 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C47" s="10">
+        <v>44049</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E47" s="4">
         <v>46</v>
       </c>
@@ -4418,12 +4722,18 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="C48" s="10">
+        <v>44050</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E48" s="4">
         <v>47</v>
       </c>
@@ -4480,12 +4790,18 @@
       </c>
     </row>
     <row r="49" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>201</v>
       </c>
+      <c r="C49" s="10">
+        <v>44051</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E49" s="4">
         <v>48</v>
       </c>
@@ -4542,12 +4858,18 @@
       </c>
     </row>
     <row r="50" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C50" s="10">
+        <v>44052</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.31805555555555598</v>
+      </c>
       <c r="E50" s="4">
         <v>48</v>
       </c>
@@ -4604,12 +4926,18 @@
       </c>
     </row>
     <row r="51" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C51" s="10">
+        <v>44053</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.359722222222223</v>
+      </c>
       <c r="E51" s="4">
         <v>49</v>
       </c>
@@ -4666,12 +4994,18 @@
       </c>
     </row>
     <row r="52" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>196</v>
       </c>
+      <c r="C52" s="10">
+        <v>44054</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0.40138888888888902</v>
+      </c>
       <c r="E52" s="4">
         <v>51</v>
       </c>
@@ -4728,12 +5062,18 @@
       </c>
     </row>
     <row r="53" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C53" s="10">
+        <v>44055</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0.44305555555555598</v>
+      </c>
       <c r="E53" s="4">
         <v>52</v>
       </c>
@@ -4790,12 +5130,18 @@
       </c>
     </row>
     <row r="54" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C54" s="10">
+        <v>44056</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E54" s="4">
         <v>52</v>
       </c>
@@ -4852,12 +5198,18 @@
       </c>
     </row>
     <row r="55" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="C55" s="10">
+        <v>44057</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E55" s="4">
         <v>53</v>
       </c>
@@ -4914,12 +5266,18 @@
       </c>
     </row>
     <row r="56" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56" s="14">
         <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C56" s="10">
+        <v>44058</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E56" s="4">
         <v>53</v>
       </c>
@@ -4976,12 +5334,18 @@
       </c>
     </row>
     <row r="57" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57" s="14">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="C57" s="10">
+        <v>44059</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E57" s="4">
         <v>54</v>
       </c>
@@ -5038,12 +5402,18 @@
       </c>
     </row>
     <row r="58" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58" s="14">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C58" s="10">
+        <v>44060</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E58" s="4">
         <v>55</v>
       </c>
@@ -5100,17 +5470,23 @@
       </c>
     </row>
     <row r="59" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59" s="15">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="C59" s="10">
+        <v>44061</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E59" s="4">
         <v>58</v>
       </c>
       <c r="F59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>298</v>
@@ -5162,12 +5538,18 @@
       </c>
     </row>
     <row r="60" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C60" s="10">
+        <v>44062</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E60" s="4">
         <v>58</v>
       </c>
@@ -5224,12 +5606,18 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C61" s="10">
+        <v>44063</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E61" s="4">
         <v>58</v>
       </c>
@@ -5286,12 +5674,18 @@
       </c>
     </row>
     <row r="62" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62" s="14">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C62" s="10">
+        <v>44064</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E62" s="4">
         <v>61</v>
       </c>
@@ -5348,12 +5742,18 @@
       </c>
     </row>
     <row r="63" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63" s="14">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>187</v>
       </c>
+      <c r="C63" s="10">
+        <v>44065</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E63" s="4">
         <v>62</v>
       </c>
@@ -5410,12 +5810,18 @@
       </c>
     </row>
     <row r="64" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64" s="14">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C64" s="10">
+        <v>44066</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E64" s="4">
         <v>63</v>
       </c>
@@ -5472,12 +5878,18 @@
       </c>
     </row>
     <row r="65" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65" s="14">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C65" s="10">
+        <v>44067</v>
+      </c>
+      <c r="D65" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E65" s="4">
         <v>63</v>
       </c>
@@ -5534,12 +5946,18 @@
       </c>
     </row>
     <row r="66" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66" s="14">
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C66" s="10">
+        <v>44068</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E66" s="4">
         <v>63</v>
       </c>
@@ -5596,12 +6014,18 @@
       </c>
     </row>
     <row r="67" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67" s="14">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C67" s="10">
+        <v>44069</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E67" s="4">
         <v>64</v>
       </c>
@@ -5658,12 +6082,18 @@
       </c>
     </row>
     <row r="68" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68" s="14">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C68" s="10">
+        <v>44070</v>
+      </c>
+      <c r="D68" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E68" s="4">
         <v>64</v>
       </c>
@@ -5720,12 +6150,18 @@
       </c>
     </row>
     <row r="69" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69" s="14">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C69" s="10">
+        <v>44071</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E69" s="4">
         <v>68</v>
       </c>
@@ -5782,12 +6218,18 @@
       </c>
     </row>
     <row r="70" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70" s="14">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C70" s="10">
+        <v>44072</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E70" s="4">
         <v>68</v>
       </c>
@@ -5844,12 +6286,18 @@
       </c>
     </row>
     <row r="71" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71" s="14">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C71" s="10">
+        <v>44073</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0.31805555555555598</v>
+      </c>
       <c r="E71" s="4">
         <v>68</v>
       </c>
@@ -5906,12 +6354,18 @@
       </c>
     </row>
     <row r="72" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="14">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>176</v>
       </c>
+      <c r="C72" s="10">
+        <v>44074</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.359722222222223</v>
+      </c>
       <c r="E72" s="4">
         <v>71</v>
       </c>
@@ -5968,12 +6422,18 @@
       </c>
     </row>
     <row r="73" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73" s="14">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="C73" s="10">
+        <v>44075</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E73" s="4">
         <v>72</v>
       </c>
@@ -6030,12 +6490,18 @@
       </c>
     </row>
     <row r="74" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="14">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="C74" s="10">
+        <v>44076</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E74" s="4">
         <v>72</v>
       </c>
@@ -6092,12 +6558,18 @@
       </c>
     </row>
     <row r="75" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75" s="14">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>171</v>
       </c>
+      <c r="C75" s="10">
+        <v>44077</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E75" s="4">
         <v>74</v>
       </c>
@@ -6154,12 +6626,18 @@
       </c>
     </row>
     <row r="76" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76" s="14">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C76" s="10">
+        <v>44078</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E76" s="4">
         <v>74</v>
       </c>
@@ -6216,12 +6694,18 @@
       </c>
     </row>
     <row r="77" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77" s="14">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>169</v>
       </c>
+      <c r="C77" s="10">
+        <v>44079</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E77" s="4">
         <v>74</v>
       </c>
@@ -6278,12 +6762,18 @@
       </c>
     </row>
     <row r="78" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="C78" s="10">
+        <v>44080</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E78" s="4">
         <v>76</v>
       </c>
@@ -6340,12 +6830,18 @@
       </c>
     </row>
     <row r="79" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79" s="14">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>166</v>
       </c>
+      <c r="C79" s="10">
+        <v>44081</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E79" s="4">
         <v>78</v>
       </c>
@@ -6402,12 +6898,18 @@
       </c>
     </row>
     <row r="80" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80" s="14">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C80" s="10">
+        <v>44082</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E80" s="4">
         <v>78</v>
       </c>
@@ -6464,12 +6966,18 @@
       </c>
     </row>
     <row r="81" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81" s="14">
         <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="C81" s="10">
+        <v>44083</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E81" s="4">
         <v>78</v>
       </c>
@@ -6526,12 +7034,18 @@
       </c>
     </row>
     <row r="82" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82" s="14">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C82" s="10">
+        <v>44084</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E82" s="4">
         <v>79</v>
       </c>
@@ -6588,12 +7102,18 @@
       </c>
     </row>
     <row r="83" spans="1:22" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83" s="14">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="C83" s="10">
+        <v>44085</v>
+      </c>
+      <c r="D83" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E83" s="4">
         <v>82</v>
       </c>
@@ -6650,12 +7170,18 @@
       </c>
     </row>
     <row r="84" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84" s="14">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C84" s="10">
+        <v>44086</v>
+      </c>
+      <c r="D84" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E84" s="4">
         <v>82</v>
       </c>
@@ -6712,12 +7238,18 @@
       </c>
     </row>
     <row r="85" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85" s="14">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C85" s="10">
+        <v>44087</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E85" s="4">
         <v>82</v>
       </c>
@@ -6774,12 +7306,18 @@
       </c>
     </row>
     <row r="86" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="14">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C86" s="10">
+        <v>44088</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E86" s="4">
         <v>85</v>
       </c>
@@ -6836,12 +7374,18 @@
       </c>
     </row>
     <row r="87" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87" s="14">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>145</v>
       </c>
+      <c r="C87" s="10">
+        <v>44089</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E87" s="4">
         <v>86</v>
       </c>
@@ -6898,12 +7442,18 @@
       </c>
     </row>
     <row r="88" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="A88" s="14">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C88" s="10">
+        <v>44090</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E88" s="4">
         <v>86</v>
       </c>
@@ -6960,12 +7510,18 @@
       </c>
     </row>
     <row r="89" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="A89" s="14">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C89" s="10">
+        <v>44091</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E89" s="4">
         <v>86</v>
       </c>
@@ -7022,12 +7578,18 @@
       </c>
     </row>
     <row r="90" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90" s="14">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C90" s="10">
+        <v>44092</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E90" s="4">
         <v>89</v>
       </c>
@@ -7084,12 +7646,18 @@
       </c>
     </row>
     <row r="91" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91" s="14">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="C91" s="10">
+        <v>44093</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E91" s="4">
         <v>89</v>
       </c>
@@ -7146,12 +7714,18 @@
       </c>
     </row>
     <row r="92" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92" s="14">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>152</v>
       </c>
+      <c r="C92" s="10">
+        <v>44094</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E92" s="4">
         <v>91</v>
       </c>
@@ -7208,12 +7782,18 @@
       </c>
     </row>
     <row r="93" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93" s="14">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C93" s="10">
+        <v>44095</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E93" s="4">
         <v>91</v>
       </c>
@@ -7270,12 +7850,18 @@
       </c>
     </row>
     <row r="94" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="A94" s="14">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="C94" s="10">
+        <v>44096</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E94" s="4">
         <v>93</v>
       </c>
@@ -7332,17 +7918,23 @@
       </c>
     </row>
     <row r="95" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95" s="15">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C95" s="10">
+        <v>44097</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E95" s="4">
         <v>94</v>
       </c>
       <c r="F95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>307</v>
@@ -7394,17 +7986,23 @@
       </c>
     </row>
     <row r="96" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="A96" s="15">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C96" s="10">
+        <v>44098</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E96" s="4">
         <v>95</v>
       </c>
       <c r="F96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>147</v>
@@ -7456,12 +8054,18 @@
       </c>
     </row>
     <row r="97" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="A97" s="14">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="C97" s="10">
+        <v>44099</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E97" s="4">
         <v>96</v>
       </c>
@@ -7518,12 +8122,18 @@
       </c>
     </row>
     <row r="98" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="A98" s="14">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>145</v>
       </c>
+      <c r="C98" s="10">
+        <v>44100</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E98" s="4">
         <v>96</v>
       </c>
@@ -7580,12 +8190,18 @@
       </c>
     </row>
     <row r="99" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="A99" s="14">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C99" s="10">
+        <v>44101</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E99" s="4">
         <v>97</v>
       </c>
@@ -7642,12 +8258,18 @@
       </c>
     </row>
     <row r="100" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="A100" s="14">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C100" s="10">
+        <v>44102</v>
+      </c>
+      <c r="D100" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E100" s="4">
         <v>98</v>
       </c>
@@ -7704,12 +8326,18 @@
       </c>
     </row>
     <row r="101" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="A101" s="14">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C101" s="10">
+        <v>44103</v>
+      </c>
+      <c r="D101" s="11">
+        <v>6.805555555555555E-2</v>
+      </c>
       <c r="E101" s="4">
         <v>100</v>
       </c>
@@ -7766,12 +8394,18 @@
       </c>
     </row>
     <row r="102" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="A102" s="14">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>140</v>
       </c>
+      <c r="C102" s="10">
+        <v>44104</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0.10972222222222222</v>
+      </c>
       <c r="E102" s="4">
         <v>100</v>
       </c>
@@ -7827,13 +8461,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="4" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+    <row r="103" spans="1:22" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="C103" s="10">
+        <v>44105</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E103" s="4">
         <v>102</v>
       </c>
@@ -7890,12 +8530,18 @@
       </c>
     </row>
     <row r="104" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="A104" s="14">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="C104" s="10">
+        <v>44106</v>
+      </c>
+      <c r="D104" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E104" s="4">
         <v>103</v>
       </c>
@@ -7952,12 +8598,18 @@
       </c>
     </row>
     <row r="105" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105" s="14">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C105" s="10">
+        <v>44107</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E105" s="4">
         <v>103</v>
       </c>
@@ -8014,12 +8666,18 @@
       </c>
     </row>
     <row r="106" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106" s="14">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C106" s="10">
+        <v>44108</v>
+      </c>
+      <c r="D106" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E106" s="4">
         <v>105</v>
       </c>
@@ -8076,12 +8734,18 @@
       </c>
     </row>
     <row r="107" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107" s="14">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C107" s="10">
+        <v>44109</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0.31805555555555598</v>
+      </c>
       <c r="E107" s="4">
         <v>105</v>
       </c>
@@ -8138,12 +8802,18 @@
       </c>
     </row>
     <row r="108" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108" s="14">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="C108" s="10">
+        <v>44110</v>
+      </c>
+      <c r="D108" s="11">
+        <v>0.359722222222222</v>
+      </c>
       <c r="E108" s="4">
         <v>107</v>
       </c>
@@ -8200,12 +8870,18 @@
       </c>
     </row>
     <row r="109" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109" s="14">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C109" s="10">
+        <v>44111</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E109" s="4">
         <v>108</v>
       </c>
@@ -8262,12 +8938,18 @@
       </c>
     </row>
     <row r="110" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110" s="14">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C110" s="10">
+        <v>44112</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E110" s="4">
         <v>108</v>
       </c>
@@ -8324,12 +9006,18 @@
       </c>
     </row>
     <row r="111" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="14">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="C111" s="10">
+        <v>44113</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E111" s="4">
         <v>108</v>
       </c>
@@ -8386,12 +9074,18 @@
       </c>
     </row>
     <row r="112" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="14">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C112" s="10">
+        <v>44114</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E112" s="4">
         <v>108</v>
       </c>
@@ -8448,12 +9142,18 @@
       </c>
     </row>
     <row r="113" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113" s="14">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C113" s="10">
+        <v>44115</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E113" s="4">
         <v>112</v>
       </c>
@@ -8510,12 +9210,18 @@
       </c>
     </row>
     <row r="114" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114" s="14">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="C114" s="10">
+        <v>44116</v>
+      </c>
+      <c r="D114" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E114" s="4">
         <v>113</v>
       </c>
@@ -8572,12 +9278,18 @@
       </c>
     </row>
     <row r="115" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115" s="14">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="C115" s="10">
+        <v>44117</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E115" s="4">
         <v>114</v>
       </c>
@@ -8634,12 +9346,18 @@
       </c>
     </row>
     <row r="116" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116" s="14">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C116" s="10">
+        <v>44118</v>
+      </c>
+      <c r="D116" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E116" s="4">
         <v>115</v>
       </c>
@@ -8696,12 +9414,18 @@
       </c>
     </row>
     <row r="117" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117" s="14">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="C117" s="10">
+        <v>44119</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E117" s="4">
         <v>116</v>
       </c>
@@ -8758,12 +9482,18 @@
       </c>
     </row>
     <row r="118" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118" s="14">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="C118" s="10">
+        <v>44120</v>
+      </c>
+      <c r="D118" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E118" s="4">
         <v>117</v>
       </c>
@@ -8820,12 +9550,18 @@
       </c>
     </row>
     <row r="119" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119" s="14">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C119" s="10">
+        <v>44121</v>
+      </c>
+      <c r="D119" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E119" s="4">
         <v>117</v>
       </c>
@@ -8882,12 +9618,18 @@
       </c>
     </row>
     <row r="120" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="A120" s="14">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C120" s="10">
+        <v>44122</v>
+      </c>
+      <c r="D120" s="11">
+        <v>6.805555555555555E-2</v>
+      </c>
       <c r="E120" s="4">
         <v>117</v>
       </c>
@@ -8944,12 +9686,18 @@
       </c>
     </row>
     <row r="121" spans="1:22" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="A121" s="14">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="C121" s="10">
+        <v>44123</v>
+      </c>
+      <c r="D121" s="11">
+        <v>0.10972222222222222</v>
+      </c>
       <c r="E121" s="4">
         <v>120</v>
       </c>
@@ -9006,12 +9754,18 @@
       </c>
     </row>
     <row r="122" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="A122" s="14">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C122" s="10">
+        <v>44124</v>
+      </c>
+      <c r="D122" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E122" s="4">
         <v>121</v>
       </c>
@@ -9068,12 +9822,18 @@
       </c>
     </row>
     <row r="123" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="A123" s="14">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="C123" s="10">
+        <v>44125</v>
+      </c>
+      <c r="D123" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E123" s="4">
         <v>122</v>
       </c>
@@ -9130,12 +9890,18 @@
       </c>
     </row>
     <row r="124" spans="1:22" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="A124" s="14">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="C124" s="10">
+        <v>44126</v>
+      </c>
+      <c r="D124" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E124" s="4">
         <v>123</v>
       </c>
@@ -9192,12 +9958,18 @@
       </c>
     </row>
     <row r="125" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="A125" s="14">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="C125" s="10">
+        <v>44127</v>
+      </c>
+      <c r="D125" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E125" s="4">
         <v>124</v>
       </c>
@@ -9254,12 +10026,18 @@
       </c>
     </row>
     <row r="126" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="A126" s="14">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="C126" s="10">
+        <v>44128</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E126" s="4">
         <v>125</v>
       </c>
@@ -9316,12 +10094,18 @@
       </c>
     </row>
     <row r="127" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="A127" s="14">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C127" s="10">
+        <v>44129</v>
+      </c>
+      <c r="D127" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E127" s="4">
         <v>125</v>
       </c>
@@ -9378,12 +10162,18 @@
       </c>
     </row>
     <row r="128" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="A128" s="14">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C128" s="10">
+        <v>44130</v>
+      </c>
+      <c r="D128" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E128" s="4">
         <v>127</v>
       </c>
@@ -9440,12 +10230,18 @@
       </c>
     </row>
     <row r="129" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="A129" s="14">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C129" s="10">
+        <v>44131</v>
+      </c>
+      <c r="D129" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E129" s="4">
         <v>128</v>
       </c>
@@ -9502,12 +10298,18 @@
       </c>
     </row>
     <row r="130" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="A130" s="14">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C130" s="10">
+        <v>44132</v>
+      </c>
+      <c r="D130" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E130" s="4">
         <v>129</v>
       </c>
@@ -9564,12 +10366,18 @@
       </c>
     </row>
     <row r="131" spans="1:22" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="A131" s="14">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C131" s="10">
+        <v>44133</v>
+      </c>
+      <c r="D131" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E131" s="4">
         <v>130</v>
       </c>
@@ -9626,12 +10434,18 @@
       </c>
     </row>
     <row r="132" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="A132" s="14">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C132" s="10">
+        <v>44134</v>
+      </c>
+      <c r="D132" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E132" s="4">
         <v>131</v>
       </c>
@@ -9688,12 +10502,18 @@
       </c>
     </row>
     <row r="133" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="A133" s="14">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C133" s="10">
+        <v>44135</v>
+      </c>
+      <c r="D133" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E133" s="4">
         <v>132</v>
       </c>
@@ -9750,11 +10570,17 @@
       </c>
     </row>
     <row r="134" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="A134" s="14">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C134" s="10">
+        <v>44136</v>
+      </c>
+      <c r="D134" s="11">
+        <v>0.98472222222222205</v>
       </c>
       <c r="E134" s="4">
         <v>133</v>
@@ -9818,6 +10644,12 @@
       <c r="B135" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="C135" s="10">
+        <v>44137</v>
+      </c>
+      <c r="D135" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E135" s="4">
         <v>134</v>
       </c>
@@ -9874,12 +10706,18 @@
       </c>
     </row>
     <row r="136" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="A136" s="14">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="C136" s="10">
+        <v>44138</v>
+      </c>
+      <c r="D136" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E136" s="4">
         <v>135</v>
       </c>
@@ -9936,12 +10774,18 @@
       </c>
     </row>
     <row r="137" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137" s="14">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C137" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D137" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E137" s="4">
         <v>135</v>
       </c>
@@ -9998,12 +10842,18 @@
       </c>
     </row>
     <row r="138" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138" s="14">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C138" s="10">
+        <v>44140</v>
+      </c>
+      <c r="D138" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E138" s="4">
         <v>135</v>
       </c>
@@ -10060,12 +10910,18 @@
       </c>
     </row>
     <row r="139" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139" s="14">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="C139" s="10">
+        <v>44141</v>
+      </c>
+      <c r="D139" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E139" s="4">
         <v>138</v>
       </c>
@@ -10122,12 +10978,18 @@
       </c>
     </row>
     <row r="140" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140" s="14">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C140" s="10">
+        <v>44142</v>
+      </c>
+      <c r="D140" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E140" s="4">
         <v>139</v>
       </c>
@@ -10184,12 +11046,18 @@
       </c>
     </row>
     <row r="141" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="14">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C141" s="10">
+        <v>44143</v>
+      </c>
+      <c r="D141" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E141" s="4">
         <v>139</v>
       </c>
@@ -10246,12 +11114,18 @@
       </c>
     </row>
     <row r="142" spans="1:22" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142" s="14">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="C142" s="10">
+        <v>44144</v>
+      </c>
+      <c r="D142" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E142" s="4">
         <v>141</v>
       </c>
@@ -10308,12 +11182,18 @@
       </c>
     </row>
     <row r="143" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143" s="14">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C143" s="10">
+        <v>44145</v>
+      </c>
+      <c r="D143" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E143" s="4">
         <v>142</v>
       </c>
@@ -10370,12 +11250,18 @@
       </c>
     </row>
     <row r="144" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144" s="14">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="C144" s="10">
+        <v>44146</v>
+      </c>
+      <c r="D144" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E144" s="4">
         <v>143</v>
       </c>
@@ -10432,12 +11318,18 @@
       </c>
     </row>
     <row r="145" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="A145" s="14">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C145" s="10">
+        <v>44147</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E145" s="4">
         <v>143</v>
       </c>
@@ -10494,12 +11386,18 @@
       </c>
     </row>
     <row r="146" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="A146" s="14">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="C146" s="10">
+        <v>44148</v>
+      </c>
+      <c r="D146" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E146" s="4">
         <v>145</v>
       </c>
@@ -10556,12 +11454,18 @@
       </c>
     </row>
     <row r="147" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="14">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C147" s="10">
+        <v>44149</v>
+      </c>
+      <c r="D147" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E147" s="4">
         <v>145</v>
       </c>
@@ -10618,12 +11522,18 @@
       </c>
     </row>
     <row r="148" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148" s="14">
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C148" s="10">
+        <v>44150</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E148" s="4">
         <v>145</v>
       </c>
@@ -10680,12 +11590,18 @@
       </c>
     </row>
     <row r="149" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149" s="14">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="C149" s="10">
+        <v>44151</v>
+      </c>
+      <c r="D149" s="11">
+        <v>0.15138888888888888</v>
+      </c>
       <c r="E149" s="4">
         <v>145</v>
       </c>
@@ -10742,11 +11658,17 @@
       </c>
     </row>
     <row r="150" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="14">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>71</v>
+      </c>
+      <c r="C150" s="10">
+        <v>44152</v>
+      </c>
+      <c r="D150" s="11">
+        <v>0.19305555555555554</v>
       </c>
       <c r="E150" s="4">
         <v>148</v>
@@ -10810,6 +11732,12 @@
       <c r="B151" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C151" s="10">
+        <v>44153</v>
+      </c>
+      <c r="D151" s="11">
+        <v>0.23472222222222219</v>
+      </c>
       <c r="E151" s="4">
         <v>150</v>
       </c>
@@ -10866,12 +11794,18 @@
       </c>
     </row>
     <row r="152" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152" s="14">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C152" s="10">
+        <v>44154</v>
+      </c>
+      <c r="D152" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E152" s="4">
         <v>151</v>
       </c>
@@ -10928,12 +11862,18 @@
       </c>
     </row>
     <row r="153" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153" s="14">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C153" s="10">
+        <v>44155</v>
+      </c>
+      <c r="D153" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E153" s="4">
         <v>152</v>
       </c>
@@ -10990,12 +11930,18 @@
       </c>
     </row>
     <row r="154" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="A154" s="14">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="C154" s="10">
+        <v>44156</v>
+      </c>
+      <c r="D154" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E154" s="4">
         <v>153</v>
       </c>
@@ -11052,12 +11998,18 @@
       </c>
     </row>
     <row r="155" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="A155" s="14">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="C155" s="10">
+        <v>44157</v>
+      </c>
+      <c r="D155" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E155" s="4">
         <v>154</v>
       </c>
@@ -11114,12 +12066,18 @@
       </c>
     </row>
     <row r="156" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="A156" s="14">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="C156" s="10">
+        <v>44158</v>
+      </c>
+      <c r="D156" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E156" s="4">
         <v>154</v>
       </c>
@@ -11176,12 +12134,18 @@
       </c>
     </row>
     <row r="157" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="A157" s="14">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="C157" s="10">
+        <v>44159</v>
+      </c>
+      <c r="D157" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E157" s="4">
         <v>154</v>
       </c>
@@ -11238,12 +12202,18 @@
       </c>
     </row>
     <row r="158" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="A158" s="14">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="C158" s="10">
+        <v>44160</v>
+      </c>
+      <c r="D158" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E158" s="4">
         <v>157</v>
       </c>
@@ -11300,12 +12270,18 @@
       </c>
     </row>
     <row r="159" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="A159" s="14">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C159" s="10">
+        <v>44161</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E159" s="4">
         <v>158</v>
       </c>
@@ -11362,12 +12338,18 @@
       </c>
     </row>
     <row r="160" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="A160" s="14">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="C160" s="10">
+        <v>44162</v>
+      </c>
+      <c r="D160" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E160" s="4">
         <v>158</v>
       </c>
@@ -11424,12 +12406,18 @@
       </c>
     </row>
     <row r="161" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="A161" s="14">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C161" s="10">
+        <v>44163</v>
+      </c>
+      <c r="D161" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E161" s="4">
         <v>160</v>
       </c>
@@ -11486,12 +12474,18 @@
       </c>
     </row>
     <row r="162" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="A162" s="14">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C162" s="10">
+        <v>44164</v>
+      </c>
+      <c r="D162" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E162" s="4">
         <v>161</v>
       </c>
@@ -11548,12 +12542,18 @@
       </c>
     </row>
     <row r="163" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="A163" s="14">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="C163" s="10">
+        <v>44165</v>
+      </c>
+      <c r="D163" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E163" s="4">
         <v>162</v>
       </c>
@@ -11610,12 +12610,18 @@
       </c>
     </row>
     <row r="164" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="A164" s="14">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C164" s="10">
+        <v>44166</v>
+      </c>
+      <c r="D164" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E164" s="4">
         <v>163</v>
       </c>
@@ -11672,12 +12678,18 @@
       </c>
     </row>
     <row r="165" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="A165" s="14">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C165" s="10">
+        <v>44167</v>
+      </c>
+      <c r="D165" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E165" s="4">
         <v>164</v>
       </c>
@@ -11734,12 +12746,18 @@
       </c>
     </row>
     <row r="166" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="A166" s="14">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C166" s="10">
+        <v>44168</v>
+      </c>
+      <c r="D166" s="11">
+        <v>0.19305555555555601</v>
+      </c>
       <c r="E166" s="4">
         <v>165</v>
       </c>
@@ -11796,12 +12814,18 @@
       </c>
     </row>
     <row r="167" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="A167" s="14">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C167" s="10">
+        <v>44169</v>
+      </c>
+      <c r="D167" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E167" s="4">
         <v>166</v>
       </c>
@@ -11858,12 +12882,18 @@
       </c>
     </row>
     <row r="168" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="A168" s="14">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C168" s="10">
+        <v>44170</v>
+      </c>
+      <c r="D168" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E168" s="4">
         <v>167</v>
       </c>
@@ -11920,12 +12950,18 @@
       </c>
     </row>
     <row r="169" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="A169" s="14">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C169" s="10">
+        <v>44171</v>
+      </c>
+      <c r="D169" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E169" s="4">
         <v>167</v>
       </c>
@@ -11982,12 +13018,18 @@
       </c>
     </row>
     <row r="170" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="A170" s="14">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C170" s="10">
+        <v>44172</v>
+      </c>
+      <c r="D170" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E170" s="4">
         <v>169</v>
       </c>
@@ -12044,12 +13086,18 @@
       </c>
     </row>
     <row r="171" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="A171" s="14">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C171" s="10">
+        <v>44173</v>
+      </c>
+      <c r="D171" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E171" s="4">
         <v>170</v>
       </c>
@@ -12106,12 +13154,18 @@
       </c>
     </row>
     <row r="172" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="A172" s="14">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C172" s="10">
+        <v>44174</v>
+      </c>
+      <c r="D172" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E172" s="4">
         <v>171</v>
       </c>
@@ -12168,12 +13222,18 @@
       </c>
     </row>
     <row r="173" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="A173" s="14">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C173" s="10">
+        <v>44175</v>
+      </c>
+      <c r="D173" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E173" s="4">
         <v>172</v>
       </c>
@@ -12230,12 +13290,18 @@
       </c>
     </row>
     <row r="174" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="A174" s="14">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C174" s="10">
+        <v>44176</v>
+      </c>
+      <c r="D174" s="11">
+        <v>0.81805555555555598</v>
+      </c>
       <c r="E174" s="4">
         <v>173</v>
       </c>
@@ -12292,12 +13358,18 @@
       </c>
     </row>
     <row r="175" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="A175" s="14">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C175" s="10">
+        <v>44177</v>
+      </c>
+      <c r="D175" s="11">
+        <v>0.85972222222222205</v>
+      </c>
       <c r="E175" s="4">
         <v>174</v>
       </c>
@@ -12354,12 +13426,18 @@
       </c>
     </row>
     <row r="176" spans="1:22" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+      <c r="A176" s="14">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C176" s="10">
+        <v>44178</v>
+      </c>
+      <c r="D176" s="11">
+        <v>0.90138888888888902</v>
+      </c>
       <c r="E176" s="4">
         <v>175</v>
       </c>
@@ -12416,12 +13494,18 @@
       </c>
     </row>
     <row r="177" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+      <c r="A177" s="14">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C177" s="10">
+        <v>44179</v>
+      </c>
+      <c r="D177" s="11">
+        <v>0.94305555555555598</v>
+      </c>
       <c r="E177" s="4">
         <v>175</v>
       </c>
@@ -12478,12 +13562,18 @@
       </c>
     </row>
     <row r="178" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="A178" s="14">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C178" s="10">
+        <v>44180</v>
+      </c>
+      <c r="D178" s="11">
+        <v>0.98472222222222205</v>
+      </c>
       <c r="E178" s="4">
         <v>177</v>
       </c>
@@ -12540,12 +13630,18 @@
       </c>
     </row>
     <row r="179" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="A179" s="14">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C179" s="10">
+        <v>44181</v>
+      </c>
+      <c r="D179" s="11">
+        <v>2.6388888888888889E-2</v>
+      </c>
       <c r="E179" s="4">
         <v>177</v>
       </c>
@@ -12602,12 +13698,18 @@
       </c>
     </row>
     <row r="180" spans="1:22" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="A180" s="14">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C180" s="10">
+        <v>44182</v>
+      </c>
+      <c r="D180" s="11">
+        <v>6.8055555555555494E-2</v>
+      </c>
       <c r="E180" s="4">
         <v>179</v>
       </c>
@@ -12664,12 +13766,18 @@
       </c>
     </row>
     <row r="181" spans="1:22" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="A181" s="14">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C181" s="10">
+        <v>44183</v>
+      </c>
+      <c r="D181" s="11">
+        <v>0.109722222222222</v>
+      </c>
       <c r="E181" s="4">
         <v>179</v>
       </c>
@@ -12726,12 +13834,18 @@
       </c>
     </row>
     <row r="182" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="A182" s="14">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C182" s="10">
+        <v>44184</v>
+      </c>
+      <c r="D182" s="11">
+        <v>0.15138888888888899</v>
+      </c>
       <c r="E182" s="4">
         <v>181</v>
       </c>
@@ -12788,12 +13902,18 @@
       </c>
     </row>
     <row r="183" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="A183" s="14">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="C183" s="10">
+        <v>44185</v>
+      </c>
+      <c r="D183" s="11">
+        <v>0.19305555555555501</v>
+      </c>
       <c r="E183" s="4">
         <v>181</v>
       </c>
@@ -12850,12 +13970,18 @@
       </c>
     </row>
     <row r="184" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="A184" s="14">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C184" s="10">
+        <v>44186</v>
+      </c>
+      <c r="D184" s="11">
+        <v>0.234722222222222</v>
+      </c>
       <c r="E184" s="4">
         <v>182</v>
       </c>
@@ -12912,12 +14038,18 @@
       </c>
     </row>
     <row r="185" spans="1:22" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="A185" s="14">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C185" s="10">
+        <v>44187</v>
+      </c>
+      <c r="D185" s="11">
+        <v>0.27638888888888902</v>
+      </c>
       <c r="E185" s="4">
         <v>184</v>
       </c>
@@ -12974,12 +14106,18 @@
       </c>
     </row>
     <row r="186" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+      <c r="A186" s="14">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C186" s="10">
+        <v>44188</v>
+      </c>
+      <c r="D186" s="11">
+        <v>0.31805555555555498</v>
+      </c>
       <c r="E186" s="4">
         <v>184</v>
       </c>
@@ -13036,12 +14174,18 @@
       </c>
     </row>
     <row r="187" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="A187" s="14">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C187" s="10">
+        <v>44189</v>
+      </c>
+      <c r="D187" s="11">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="E187" s="4">
         <v>186</v>
       </c>
@@ -13098,12 +14242,18 @@
       </c>
     </row>
     <row r="188" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="A188" s="14">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C188" s="10">
+        <v>44190</v>
+      </c>
+      <c r="D188" s="11">
+        <v>0.65138888888888902</v>
+      </c>
       <c r="E188" s="4">
         <v>187</v>
       </c>
@@ -13160,12 +14310,18 @@
       </c>
     </row>
     <row r="189" spans="1:22" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189" s="14">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C189" s="10">
+        <v>44191</v>
+      </c>
+      <c r="D189" s="11">
+        <v>0.69305555555555598</v>
+      </c>
       <c r="E189" s="4">
         <v>187</v>
       </c>
@@ -13222,12 +14378,18 @@
       </c>
     </row>
     <row r="190" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="A190" s="14">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C190" s="10">
+        <v>44192</v>
+      </c>
+      <c r="D190" s="11">
+        <v>0.73472222222222205</v>
+      </c>
       <c r="E190" s="4">
         <v>189</v>
       </c>
@@ -13284,12 +14446,18 @@
       </c>
     </row>
     <row r="191" spans="1:22" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="A191" s="14">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C191" s="10">
+        <v>44193</v>
+      </c>
+      <c r="D191" s="11">
+        <v>0.77638888888888902</v>
+      </c>
       <c r="E191" s="4">
         <v>190</v>
       </c>
@@ -13346,11 +14514,17 @@
       </c>
     </row>
     <row r="192" spans="1:22" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="A192" s="14">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="C192" s="10">
+        <v>44194</v>
+      </c>
+      <c r="D192" s="11">
+        <v>0.81805555555555598</v>
       </c>
       <c r="E192" s="4">
         <v>191</v>
@@ -13407,11 +14581,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U194" s="3">
+        <v>3</v>
+      </c>
+      <c r="V194" s="3">
+        <f>COUNTIF(V2:V192, "3")</f>
+        <v>2</v>
+      </c>
+      <c r="W194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U195" s="3">
+        <v>2</v>
+      </c>
+      <c r="V195" s="3">
+        <f>COUNTIF(V2:V192, "2")</f>
+        <v>16</v>
+      </c>
+      <c r="W195" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U196" s="3">
+        <v>1</v>
+      </c>
+      <c r="V196" s="3">
+        <f>COUNTIF(V2:V192, "1")</f>
+        <v>43</v>
+      </c>
+      <c r="W196" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U197" s="3">
+        <v>0</v>
+      </c>
+      <c r="V197" s="3">
+        <f>COUNTIF(V2:V192, "0")</f>
+        <v>130</v>
+      </c>
+      <c r="W197" s="3">
+        <v>61</v>
+      </c>
+      <c r="X197" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="V198" s="3">
+        <v>191</v>
+      </c>
+      <c r="W198" s="3">
+        <v>95</v>
+      </c>
+      <c r="X198" s="3">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="F1:F192" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{A302F512-252B-864E-90F0-3A7B33B0A869}">
+      <formula1>$AD$26:$AD$26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:U1 H1 J1:O1" xr:uid="{5AF0D8BB-49E5-D143-8EDB-7BC22641A4EC}">
+      <formula1>$Z$2:$Z$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1" xr:uid="{D1A8A127-3059-A94F-8E90-A90BA631B2DC}">
+      <formula1>$AC$2:$AC$144</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13419,22 +14664,3916 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55FA3C-4220-4E41-998F-2134E7952507}">
+  <dimension ref="A1:F192"/>
+  <sheetViews>
+    <sheetView topLeftCell="A183" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A192" sqref="A2:A192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="23.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44004</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F36" si="0">IF(E2=A2,1,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="10">
+        <v>44005</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44006</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44007</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44008</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44009</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44010</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44011</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44012</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44013</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44014</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44015</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E13" s="4">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44016</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44017</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E15" s="4">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44018</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E16" s="4">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44019</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E17" s="4">
+        <v>16</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44020</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44021</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1.31805555555556</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44022</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.3597222222222201</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44023</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.4013888888888899</v>
+      </c>
+      <c r="E21" s="4">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44024</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.44305555555556</v>
+      </c>
+      <c r="E22" s="4">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44025</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1.4847222222222201</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44026</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1.5263888888888899</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44027</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1.56805555555556</v>
+      </c>
+      <c r="E25" s="4">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44028</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.6097222222222201</v>
+      </c>
+      <c r="E26" s="4">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44029</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1.6513888888888899</v>
+      </c>
+      <c r="E27" s="4">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44030</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1.69305555555556</v>
+      </c>
+      <c r="E28" s="4">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44031</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1.7347222222222201</v>
+      </c>
+      <c r="E29" s="4">
+        <v>26</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44032</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1.7763888888888899</v>
+      </c>
+      <c r="E30" s="4">
+        <v>29</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44033</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1.81805555555556</v>
+      </c>
+      <c r="E31" s="4">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44034</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1.85972222222223</v>
+      </c>
+      <c r="E32" s="4">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44035</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E33" s="4">
+        <v>32</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44036</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E34" s="4">
+        <v>33</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44037</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E35" s="4">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44038</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E36" s="4">
+        <v>35</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44039</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E37" s="4">
+        <v>35</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44040</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E38" s="4">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="10">
+        <v>44041</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E39" s="4">
+        <v>38</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44042</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E40" s="4">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44043</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E41" s="4">
+        <v>40</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44044</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E42" s="4">
+        <v>41</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44045</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E43" s="4">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44046</v>
+      </c>
+      <c r="D44" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44047</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E45" s="4">
+        <v>44</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44048</v>
+      </c>
+      <c r="D46" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44049</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E47" s="4">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44050</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E48" s="4">
+        <v>47</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="10">
+        <v>44051</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E49" s="4">
+        <v>48</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44052</v>
+      </c>
+      <c r="D50" s="11">
+        <v>1.31805555555556</v>
+      </c>
+      <c r="E50" s="4">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="10">
+        <v>44053</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1.3597222222222201</v>
+      </c>
+      <c r="E51" s="4">
+        <v>49</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44054</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1.4013888888888899</v>
+      </c>
+      <c r="E52" s="4">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="10">
+        <v>44055</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1.44305555555556</v>
+      </c>
+      <c r="E53" s="4">
+        <v>52</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="10">
+        <v>44056</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E54" s="4">
+        <v>52</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44057</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E55" s="4">
+        <v>53</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="10">
+        <v>44058</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E56" s="4">
+        <v>53</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="10">
+        <v>44059</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E57" s="4">
+        <v>54</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="10">
+        <v>44060</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E58" s="4">
+        <v>55</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44061</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E59" s="4">
+        <v>58</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="10">
+        <v>44062</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E60" s="4">
+        <v>58</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="10">
+        <v>44063</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E61" s="4">
+        <v>58</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="10">
+        <v>44064</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E62" s="4">
+        <v>61</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44065</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E63" s="4">
+        <v>62</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="10">
+        <v>44066</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E64" s="4">
+        <v>63</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44067</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E65" s="4">
+        <v>63</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="10">
+        <v>44068</v>
+      </c>
+      <c r="D66" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E66" s="4">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="10">
+        <v>44069</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E67" s="4">
+        <v>64</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44070</v>
+      </c>
+      <c r="D68" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E68" s="4">
+        <v>64</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44071</v>
+      </c>
+      <c r="D69" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E69" s="4">
+        <v>68</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44072</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E70" s="4">
+        <v>68</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44073</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1.31805555555556</v>
+      </c>
+      <c r="E71" s="4">
+        <v>68</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44074</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1.3597222222222201</v>
+      </c>
+      <c r="E72" s="4">
+        <v>71</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44075</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E73" s="4">
+        <v>72</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="10">
+        <v>44076</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E74" s="4">
+        <v>72</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="10">
+        <v>44077</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E75" s="4">
+        <v>74</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44078</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E76" s="4">
+        <v>74</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44079</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E77" s="4">
+        <v>74</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="10">
+        <v>44080</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E78" s="4">
+        <v>76</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="10">
+        <v>44081</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E79" s="4">
+        <v>78</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="10">
+        <v>44082</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E80" s="4">
+        <v>78</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
+        <v>81</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="10">
+        <v>44083</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E81" s="4">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="10">
+        <v>44084</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E82" s="4">
+        <v>79</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="10">
+        <v>44085</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E83" s="4">
+        <v>82</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="10">
+        <v>44086</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E84" s="4">
+        <v>82</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="10">
+        <v>44087</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E85" s="4">
+        <v>82</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="10">
+        <v>44088</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E86" s="4">
+        <v>85</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="10">
+        <v>44089</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E87" s="4">
+        <v>86</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="10">
+        <v>44090</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E88" s="4">
+        <v>86</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="10">
+        <v>44091</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E89" s="4">
+        <v>86</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="10">
+        <v>44092</v>
+      </c>
+      <c r="D90" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E90" s="4">
+        <v>89</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="10">
+        <v>44093</v>
+      </c>
+      <c r="D91" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E91" s="4">
+        <v>89</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C92" s="10">
+        <v>44094</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E92" s="4">
+        <v>91</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="10">
+        <v>44095</v>
+      </c>
+      <c r="D93" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E93" s="4">
+        <v>91</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="10">
+        <v>44096</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E94" s="4">
+        <v>93</v>
+      </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="10">
+        <v>44097</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E95" s="4">
+        <v>94</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="10">
+        <v>44098</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E96" s="4">
+        <v>95</v>
+      </c>
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="10">
+        <v>44099</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E97" s="4">
+        <v>96</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="10">
+        <v>44100</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E98" s="4">
+        <v>96</v>
+      </c>
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="10">
+        <v>44101</v>
+      </c>
+      <c r="D99" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E99" s="4">
+        <v>97</v>
+      </c>
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="10">
+        <v>44102</v>
+      </c>
+      <c r="D100" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E100" s="4">
+        <v>98</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="10">
+        <v>44103</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E101" s="4">
+        <v>100</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="10">
+        <v>44104</v>
+      </c>
+      <c r="D102" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E102" s="4">
+        <v>100</v>
+      </c>
+      <c r="F102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="10">
+        <v>44105</v>
+      </c>
+      <c r="D103" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E103" s="4">
+        <v>102</v>
+      </c>
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="14">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="10">
+        <v>44106</v>
+      </c>
+      <c r="D104" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E104" s="4">
+        <v>103</v>
+      </c>
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="14">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="10">
+        <v>44107</v>
+      </c>
+      <c r="D105" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E105" s="4">
+        <v>103</v>
+      </c>
+      <c r="F105" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="14">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="10">
+        <v>44108</v>
+      </c>
+      <c r="D106" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E106" s="4">
+        <v>105</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="14">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="10">
+        <v>44109</v>
+      </c>
+      <c r="D107" s="11">
+        <v>1.31805555555556</v>
+      </c>
+      <c r="E107" s="4">
+        <v>105</v>
+      </c>
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="10">
+        <v>44110</v>
+      </c>
+      <c r="D108" s="11">
+        <v>1.3597222222222201</v>
+      </c>
+      <c r="E108" s="4">
+        <v>107</v>
+      </c>
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="10">
+        <v>44111</v>
+      </c>
+      <c r="D109" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E109" s="4">
+        <v>108</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="14">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="10">
+        <v>44112</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E110" s="4">
+        <v>108</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="10">
+        <v>44113</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E111" s="4">
+        <v>108</v>
+      </c>
+      <c r="F111" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="10">
+        <v>44114</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E112" s="4">
+        <v>108</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="14">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="10">
+        <v>44115</v>
+      </c>
+      <c r="D113" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E113" s="4">
+        <v>112</v>
+      </c>
+      <c r="F113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="14">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="10">
+        <v>44116</v>
+      </c>
+      <c r="D114" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E114" s="4">
+        <v>113</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="14">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" s="10">
+        <v>44117</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E115" s="4">
+        <v>114</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="14">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="10">
+        <v>44118</v>
+      </c>
+      <c r="D116" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E116" s="4">
+        <v>115</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="14">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="10">
+        <v>44119</v>
+      </c>
+      <c r="D117" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E117" s="4">
+        <v>116</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="14">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="10">
+        <v>44120</v>
+      </c>
+      <c r="D118" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E118" s="4">
+        <v>117</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="14">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="10">
+        <v>44121</v>
+      </c>
+      <c r="D119" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E119" s="4">
+        <v>117</v>
+      </c>
+      <c r="F119" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="14">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="10">
+        <v>44122</v>
+      </c>
+      <c r="D120" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E120" s="4">
+        <v>117</v>
+      </c>
+      <c r="F120" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" s="10">
+        <v>44123</v>
+      </c>
+      <c r="D121" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E121" s="4">
+        <v>120</v>
+      </c>
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="10">
+        <v>44124</v>
+      </c>
+      <c r="D122" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E122" s="4">
+        <v>121</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="10">
+        <v>44125</v>
+      </c>
+      <c r="D123" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E123" s="4">
+        <v>122</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="10">
+        <v>44126</v>
+      </c>
+      <c r="D124" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E124" s="4">
+        <v>123</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="10">
+        <v>44127</v>
+      </c>
+      <c r="D125" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E125" s="4">
+        <v>124</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="14">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="10">
+        <v>44128</v>
+      </c>
+      <c r="D126" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E126" s="4">
+        <v>125</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="14">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="10">
+        <v>44129</v>
+      </c>
+      <c r="D127" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E127" s="4">
+        <v>125</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="14">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="10">
+        <v>44130</v>
+      </c>
+      <c r="D128" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E128" s="4">
+        <v>127</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="14">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C129" s="10">
+        <v>44131</v>
+      </c>
+      <c r="D129" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E129" s="4">
+        <v>128</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="14">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" s="10">
+        <v>44132</v>
+      </c>
+      <c r="D130" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E130" s="4">
+        <v>129</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="14">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="10">
+        <v>44133</v>
+      </c>
+      <c r="D131" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E131" s="4">
+        <v>130</v>
+      </c>
+      <c r="F131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="14">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" s="10">
+        <v>44134</v>
+      </c>
+      <c r="D132" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E132" s="4">
+        <v>131</v>
+      </c>
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="14">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="10">
+        <v>44135</v>
+      </c>
+      <c r="D133" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E133" s="4">
+        <v>132</v>
+      </c>
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="14">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="10">
+        <v>44136</v>
+      </c>
+      <c r="D134" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E134" s="4">
+        <v>133</v>
+      </c>
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C135" s="10">
+        <v>44137</v>
+      </c>
+      <c r="D135" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E135" s="4">
+        <v>134</v>
+      </c>
+      <c r="F135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="14">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C136" s="10">
+        <v>44138</v>
+      </c>
+      <c r="D136" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E136" s="4">
+        <v>135</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="14">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D137" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E137" s="4">
+        <v>135</v>
+      </c>
+      <c r="F137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="14">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="10">
+        <v>44140</v>
+      </c>
+      <c r="D138" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E138" s="4">
+        <v>135</v>
+      </c>
+      <c r="F138" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="14">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C139" s="10">
+        <v>44141</v>
+      </c>
+      <c r="D139" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E139" s="4">
+        <v>138</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="14">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="10">
+        <v>44142</v>
+      </c>
+      <c r="D140" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E140" s="4">
+        <v>139</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="14">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" s="10">
+        <v>44143</v>
+      </c>
+      <c r="D141" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E141" s="4">
+        <v>139</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="14">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="10">
+        <v>44144</v>
+      </c>
+      <c r="D142" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E142" s="4">
+        <v>141</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="14">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="10">
+        <v>44145</v>
+      </c>
+      <c r="D143" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E143" s="4">
+        <v>142</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="14">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C144" s="10">
+        <v>44146</v>
+      </c>
+      <c r="D144" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E144" s="4">
+        <v>143</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="14">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="10">
+        <v>44147</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E145" s="4">
+        <v>143</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" s="10">
+        <v>44148</v>
+      </c>
+      <c r="D146" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E146" s="4">
+        <v>145</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="10">
+        <v>44149</v>
+      </c>
+      <c r="D147" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E147" s="4">
+        <v>145</v>
+      </c>
+      <c r="F147" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="10">
+        <v>44150</v>
+      </c>
+      <c r="D148" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E148" s="4">
+        <v>145</v>
+      </c>
+      <c r="F148" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" s="10">
+        <v>44151</v>
+      </c>
+      <c r="D149" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E149" s="4">
+        <v>145</v>
+      </c>
+      <c r="F149" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="10">
+        <v>44152</v>
+      </c>
+      <c r="D150" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E150" s="4">
+        <v>148</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" s="10">
+        <v>44153</v>
+      </c>
+      <c r="D151" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E151" s="4">
+        <v>150</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="14">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="10">
+        <v>44154</v>
+      </c>
+      <c r="D152" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E152" s="4">
+        <v>151</v>
+      </c>
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="14">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="10">
+        <v>44155</v>
+      </c>
+      <c r="D153" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E153" s="4">
+        <v>152</v>
+      </c>
+      <c r="F153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" s="10">
+        <v>44156</v>
+      </c>
+      <c r="D154" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E154" s="4">
+        <v>153</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="10">
+        <v>44157</v>
+      </c>
+      <c r="D155" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E155" s="4">
+        <v>154</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" s="10">
+        <v>44158</v>
+      </c>
+      <c r="D156" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E156" s="4">
+        <v>154</v>
+      </c>
+      <c r="F156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="14">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="10">
+        <v>44159</v>
+      </c>
+      <c r="D157" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E157" s="4">
+        <v>154</v>
+      </c>
+      <c r="F157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="14">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C158" s="10">
+        <v>44160</v>
+      </c>
+      <c r="D158" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E158" s="4">
+        <v>157</v>
+      </c>
+      <c r="F158" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="14">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="10">
+        <v>44161</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E159" s="4">
+        <v>158</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="14">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="10">
+        <v>44162</v>
+      </c>
+      <c r="D160" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E160" s="4">
+        <v>158</v>
+      </c>
+      <c r="F160" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="14">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="10">
+        <v>44163</v>
+      </c>
+      <c r="D161" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E161" s="4">
+        <v>160</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="10">
+        <v>44164</v>
+      </c>
+      <c r="D162" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E162" s="4">
+        <v>161</v>
+      </c>
+      <c r="F162" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C163" s="10">
+        <v>44165</v>
+      </c>
+      <c r="D163" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E163" s="4">
+        <v>162</v>
+      </c>
+      <c r="F163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="10">
+        <v>44166</v>
+      </c>
+      <c r="D164" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E164" s="4">
+        <v>163</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" s="10">
+        <v>44167</v>
+      </c>
+      <c r="D165" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E165" s="4">
+        <v>164</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="10">
+        <v>44168</v>
+      </c>
+      <c r="D166" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E166" s="4">
+        <v>165</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="10">
+        <v>44169</v>
+      </c>
+      <c r="D167" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E167" s="4">
+        <v>166</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="10">
+        <v>44170</v>
+      </c>
+      <c r="D168" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E168" s="4">
+        <v>167</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="10">
+        <v>44171</v>
+      </c>
+      <c r="D169" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E169" s="4">
+        <v>167</v>
+      </c>
+      <c r="F169" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="14">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="10">
+        <v>44172</v>
+      </c>
+      <c r="D170" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E170" s="4">
+        <v>169</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="14">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="10">
+        <v>44173</v>
+      </c>
+      <c r="D171" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E171" s="4">
+        <v>170</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="14">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="10">
+        <v>44174</v>
+      </c>
+      <c r="D172" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E172" s="4">
+        <v>171</v>
+      </c>
+      <c r="F172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="14">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="10">
+        <v>44175</v>
+      </c>
+      <c r="D173" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E173" s="4">
+        <v>172</v>
+      </c>
+      <c r="F173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="14">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="10">
+        <v>44176</v>
+      </c>
+      <c r="D174" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E174" s="4">
+        <v>173</v>
+      </c>
+      <c r="F174" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="14">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" s="10">
+        <v>44177</v>
+      </c>
+      <c r="D175" s="11">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="E175" s="4">
+        <v>174</v>
+      </c>
+      <c r="F175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="10">
+        <v>44178</v>
+      </c>
+      <c r="D176" s="11">
+        <v>0.90138888888888902</v>
+      </c>
+      <c r="E176" s="4">
+        <v>175</v>
+      </c>
+      <c r="F176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="10">
+        <v>44179</v>
+      </c>
+      <c r="D177" s="11">
+        <v>0.94305555555555598</v>
+      </c>
+      <c r="E177" s="4">
+        <v>175</v>
+      </c>
+      <c r="F177" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="10">
+        <v>44180</v>
+      </c>
+      <c r="D178" s="11">
+        <v>0.98472222222222205</v>
+      </c>
+      <c r="E178" s="4">
+        <v>177</v>
+      </c>
+      <c r="F178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="10">
+        <v>44181</v>
+      </c>
+      <c r="D179" s="11">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="E179" s="4">
+        <v>177</v>
+      </c>
+      <c r="F179" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="10">
+        <v>44182</v>
+      </c>
+      <c r="D180" s="11">
+        <v>1.06805555555556</v>
+      </c>
+      <c r="E180" s="4">
+        <v>179</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="10">
+        <v>44183</v>
+      </c>
+      <c r="D181" s="11">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="E181" s="4">
+        <v>179</v>
+      </c>
+      <c r="F181" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="10">
+        <v>44184</v>
+      </c>
+      <c r="D182" s="11">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="E182" s="4">
+        <v>181</v>
+      </c>
+      <c r="F182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="10">
+        <v>44185</v>
+      </c>
+      <c r="D183" s="11">
+        <v>1.19305555555556</v>
+      </c>
+      <c r="E183" s="4">
+        <v>181</v>
+      </c>
+      <c r="F183" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="10">
+        <v>44186</v>
+      </c>
+      <c r="D184" s="11">
+        <v>1.2347222222222201</v>
+      </c>
+      <c r="E184" s="4">
+        <v>182</v>
+      </c>
+      <c r="F184" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="10">
+        <v>44187</v>
+      </c>
+      <c r="D185" s="11">
+        <v>1.2763888888888899</v>
+      </c>
+      <c r="E185" s="4">
+        <v>184</v>
+      </c>
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="10">
+        <v>44188</v>
+      </c>
+      <c r="D186" s="11">
+        <v>1.31805555555556</v>
+      </c>
+      <c r="E186" s="4">
+        <v>184</v>
+      </c>
+      <c r="F186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="14">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="10">
+        <v>44189</v>
+      </c>
+      <c r="D187" s="11">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E187" s="4">
+        <v>186</v>
+      </c>
+      <c r="F187" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="14">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C188" s="10">
+        <v>44190</v>
+      </c>
+      <c r="D188" s="11">
+        <v>0.65138888888888902</v>
+      </c>
+      <c r="E188" s="4">
+        <v>187</v>
+      </c>
+      <c r="F188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="14">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="10">
+        <v>44191</v>
+      </c>
+      <c r="D189" s="11">
+        <v>0.69305555555555598</v>
+      </c>
+      <c r="E189" s="4">
+        <v>187</v>
+      </c>
+      <c r="F189" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="14">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="10">
+        <v>44192</v>
+      </c>
+      <c r="D190" s="11">
+        <v>0.73472222222222205</v>
+      </c>
+      <c r="E190" s="4">
+        <v>189</v>
+      </c>
+      <c r="F190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="14">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="10">
+        <v>44193</v>
+      </c>
+      <c r="D191" s="11">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="E191" s="4">
+        <v>190</v>
+      </c>
+      <c r="F191" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="14">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="10">
+        <v>44194</v>
+      </c>
+      <c r="D192" s="11">
+        <v>0.81805555555555598</v>
+      </c>
+      <c r="E192" s="4">
+        <v>191</v>
+      </c>
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{3D55EB9F-E2AE-A740-AD31-7FAEE0DC61B4}">
+      <formula1>$AD$26:$AD$26</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010086118A182A8DCF4F902A14E779520E0C" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cacfcb5c05453852a23e23ac7deafe36">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1496553d-e557-4b67-917b-c9b3417b0f6a" xmlns:ns4="fba3f5ce-5422-4f75-82b8-6ed129aa1f2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cc46d1f8c35d86ce08775d1f2c81431" ns3:_="" ns4:_="">
     <xsd:import namespace="1496553d-e557-4b67-917b-c9b3417b0f6a"/>
@@ -13657,15 +18796,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60EC27E-8995-467F-8915-68DD3E562297}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F2D8141-F2AB-47FA-B1EB-7EEF95B1C1BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -13682,7 +18822,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF5A552-CA30-4EB2-B8D1-1948B959677E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13699,4 +18839,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60EC27E-8995-467F-8915-68DD3E562297}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>